--- a/random_method/solutions/solution_80_homogeneous_evolutionary.xlsx
+++ b/random_method/solutions/solution_80_homogeneous_evolutionary.xlsx
@@ -460,11 +460,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>522.6886474213428</v>
+        <v>522.1891231484485</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +614,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S065</t>
+          <t>S022</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S075</t>
+          <t>S023</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S043</t>
+          <t>S074</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S054</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S053</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S025</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S074</t>
+          <t>S043</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S075</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S065</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S045</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S023</t>
+          <t>S054</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S067</t>
+          <t>S055</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S046</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S056</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S070</t>
+          <t>S067</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S047</t>
+          <t>S069</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S077</t>
+          <t>S050</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S078</t>
+          <t>S077</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S058</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S069</t>
+          <t>S070</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S058</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S047</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S078</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.6886474213428</v>
+        <v>522.1704941074711</v>
       </c>
     </row>
     <row r="3">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>522.6234836198507</v>
+        <v>522.1560817385662</v>
       </c>
     </row>
     <row r="4">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.3180668180345</v>
+        <v>522.1607092658669</v>
       </c>
     </row>
     <row r="5">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.6132554870798</v>
+        <v>522.1891231484485</v>
       </c>
     </row>
   </sheetData>
